--- a/data/trans_orig/P25D_R_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>5996</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13389</v>
+        <v>14030</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01204803156109636</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00427854472483942</v>
+        <v>0.004249611751137576</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0269058652308413</v>
+        <v>0.02819350463551383</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -762,19 +762,19 @@
         <v>3616</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1349</v>
+        <v>1325</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7971</v>
+        <v>8107</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005798365639650372</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002163237961254474</v>
+        <v>0.002124944321007851</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01278317521408693</v>
+        <v>0.01300053885488465</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -783,19 +783,19 @@
         <v>9611</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4340</v>
+        <v>4818</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18285</v>
+        <v>18253</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0085722085603833</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003870551505454791</v>
+        <v>0.004297009788253658</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01630775758355955</v>
+        <v>0.01627944885562022</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>491645</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>484252</v>
+        <v>483611</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>495512</v>
+        <v>495526</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9879519684389035</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9730941347691585</v>
+        <v>0.9718064953644863</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9957214552751604</v>
+        <v>0.9957503882488624</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>856</v>
@@ -833,19 +833,19 @@
         <v>619964</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>615609</v>
+        <v>615473</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>622231</v>
+        <v>622255</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9942016343603495</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9872168247859133</v>
+        <v>0.9869994611451147</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9978367620387456</v>
+        <v>0.9978750556789918</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1305</v>
@@ -854,19 +854,19 @@
         <v>1111611</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1102937</v>
+        <v>1102969</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1116882</v>
+        <v>1116404</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9914277914396169</v>
+        <v>0.9914277914396165</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9836922424164403</v>
+        <v>0.9837205511443797</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9961294484945453</v>
+        <v>0.9957029902117465</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>11903</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4715</v>
+        <v>4402</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29344</v>
+        <v>26679</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01240608340381028</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004914226401991109</v>
+        <v>0.004587612212035946</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03058368352261169</v>
+        <v>0.02780652515345278</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -979,19 +979,19 @@
         <v>3156</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1048</v>
+        <v>864</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6885</v>
+        <v>6919</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002830261561370913</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0009398763775496894</v>
+        <v>0.0007745200565263772</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.006174052949723763</v>
+        <v>0.006204322077351327</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1000,19 +1000,19 @@
         <v>15059</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7410</v>
+        <v>6843</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33932</v>
+        <v>30860</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00725885940930229</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003571683680791763</v>
+        <v>0.003298646951885384</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.016355513652476</v>
+        <v>0.01487485903019282</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>947566</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>930125</v>
+        <v>932790</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>954754</v>
+        <v>955067</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9875939165961898</v>
+        <v>0.9875939165961897</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9694163164773886</v>
+        <v>0.9721934748465473</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9950857735980089</v>
+        <v>0.995412387787964</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1601</v>
@@ -1050,19 +1050,19 @@
         <v>1112005</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1108276</v>
+        <v>1108242</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1114113</v>
+        <v>1114297</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9971697384386291</v>
+        <v>0.9971697384386289</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9938259470502766</v>
+        <v>0.9937956779226471</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9990601236224502</v>
+        <v>0.9992254799434738</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2503</v>
@@ -1071,19 +1071,19 @@
         <v>2059571</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2040698</v>
+        <v>2043770</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2067220</v>
+        <v>2067787</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9927411405906977</v>
+        <v>0.9927411405906976</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9836444863475232</v>
+        <v>0.9851251409698072</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9964283163192081</v>
+        <v>0.9967013530481147</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>10499</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4751</v>
+        <v>4892</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21738</v>
+        <v>20198</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01004460617023391</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004545513155830274</v>
+        <v>0.004680604349016326</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02079817442413754</v>
+        <v>0.01932409143011271</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1196,19 +1196,19 @@
         <v>8282</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3789</v>
+        <v>3893</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15898</v>
+        <v>15551</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007905552035609845</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003616920865507632</v>
+        <v>0.003716124364770342</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01517459810820596</v>
+        <v>0.01484378251622613</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1217,19 +1217,19 @@
         <v>18781</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10803</v>
+        <v>11397</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30192</v>
+        <v>31151</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.008973830575528783</v>
+        <v>0.008973830575528785</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00516192595938979</v>
+        <v>0.005445729504504123</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01442650216470278</v>
+        <v>0.01488463524130547</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>1034699</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1023460</v>
+        <v>1025000</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1040447</v>
+        <v>1040306</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9899553938297662</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9792018255758626</v>
+        <v>0.9806759085698871</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9954544868441698</v>
+        <v>0.9953193956509836</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1506</v>
@@ -1267,19 +1267,19 @@
         <v>1039360</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1031744</v>
+        <v>1032091</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1043853</v>
+        <v>1043749</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9920944479643903</v>
+        <v>0.9920944479643902</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9848254018917943</v>
+        <v>0.9851562174837744</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9963830791344931</v>
+        <v>0.99628387563523</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2526</v>
@@ -1288,19 +1288,19 @@
         <v>2074059</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2062648</v>
+        <v>2061689</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2082037</v>
+        <v>2081443</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9910261694244712</v>
+        <v>0.9910261694244713</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9855734978352976</v>
+        <v>0.9851153647586944</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9948380740406102</v>
+        <v>0.9945542704954959</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>13260</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6746</v>
+        <v>5919</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25850</v>
+        <v>25694</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01364840798822532</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006944121472525301</v>
+        <v>0.006092919867548005</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02660709656646031</v>
+        <v>0.02644713828843692</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1413,19 +1413,19 @@
         <v>10153</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4328</v>
+        <v>4660</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19666</v>
+        <v>20500</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0112546287636018</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004797890798411293</v>
+        <v>0.005165282263773086</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.021798704427983</v>
+        <v>0.02272315207324222</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1434,19 +1434,19 @@
         <v>23413</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13772</v>
+        <v>13950</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38367</v>
+        <v>37453</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01249584125367123</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007350027926512541</v>
+        <v>0.007445419529541731</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02047677864652487</v>
+        <v>0.01998886477737325</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>958274</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>945684</v>
+        <v>945840</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>964788</v>
+        <v>965615</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9863515920117748</v>
+        <v>0.9863515920117745</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9733929034335397</v>
+        <v>0.9735528617115632</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9930558785274747</v>
+        <v>0.9939070801324521</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1302</v>
@@ -1484,19 +1484,19 @@
         <v>891995</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>882482</v>
+        <v>881648</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>897820</v>
+        <v>897488</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9887453712363984</v>
+        <v>0.9887453712363983</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.978201295572017</v>
+        <v>0.9772768479267577</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9952021092015887</v>
+        <v>0.994834717736227</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2236</v>
@@ -1505,19 +1505,19 @@
         <v>1850269</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1835315</v>
+        <v>1836229</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1859910</v>
+        <v>1859732</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9875041587463288</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9795232213534751</v>
+        <v>0.9800111352226266</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9926499720734875</v>
+        <v>0.992554580470458</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>41657</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28063</v>
+        <v>28957</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61675</v>
+        <v>62417</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01199171992661005</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008078452562357018</v>
+        <v>0.008335816014197847</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01775402114470854</v>
+        <v>0.01796778708005579</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -1630,19 +1630,19 @@
         <v>25207</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17290</v>
+        <v>16376</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37745</v>
+        <v>37267</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.006834013244469193</v>
+        <v>0.006834013244469194</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004687515185834783</v>
+        <v>0.004439623357556673</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01023311856451648</v>
+        <v>0.01010337933021804</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -1651,19 +1651,19 @@
         <v>66865</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49676</v>
+        <v>50076</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89717</v>
+        <v>89200</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.009335566694282598</v>
+        <v>0.0093355666942826</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006935629470676463</v>
+        <v>0.006991520043398683</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01252609416238422</v>
+        <v>0.01245403834386931</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3432186</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3412168</v>
+        <v>3411426</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3445780</v>
+        <v>3444886</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.98800828007339</v>
+        <v>0.9880082800733898</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9822459788552913</v>
+        <v>0.982032212919944</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9919215474376429</v>
+        <v>0.991664183985802</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5265</v>
@@ -1701,19 +1701,19 @@
         <v>3663324</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3650786</v>
+        <v>3651264</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3671241</v>
+        <v>3672155</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9931659867555309</v>
+        <v>0.9931659867555307</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9897668814354837</v>
+        <v>0.9898966206697821</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9953124848141651</v>
+        <v>0.9955603766424435</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8570</v>
@@ -1722,19 +1722,19 @@
         <v>7095509</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7072657</v>
+        <v>7073174</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7112698</v>
+        <v>7112298</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9906644333057173</v>
+        <v>0.9906644333057174</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9874739058376157</v>
+        <v>0.9875459616561305</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9930643705293237</v>
+        <v>0.9930084799566004</v>
       </c>
     </row>
     <row r="18">
